--- a/Camacho Juárez Sergio Eduardo 20212.xlsx
+++ b/Camacho Juárez Sergio Eduardo 20212.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="541">
   <si>
     <t>NC</t>
   </si>
@@ -953,6 +953,9 @@
     <t>CONGUILLO</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
     <t>CUATRA</t>
   </si>
   <si>
@@ -1139,6 +1142,9 @@
     <t>joanakaory567@gmail.com</t>
   </si>
   <si>
+    <t>fernandacorona771@gmail.com</t>
+  </si>
+  <si>
     <t>cuatramaria7@gmail.com</t>
   </si>
   <si>
@@ -1241,6 +1247,9 @@
     <t>2722370860</t>
   </si>
   <si>
+    <t>2721758700</t>
+  </si>
+  <si>
     <t>2721969745</t>
   </si>
   <si>
@@ -1373,6 +1382,9 @@
     <t>IRENE MINERVA GONZÁLEZ REYES</t>
   </si>
   <si>
+    <t>IRVING CORONA ROQUE</t>
+  </si>
+  <si>
     <t>DANIEL CUATRA CANDELARIA</t>
   </si>
   <si>
@@ -1472,6 +1484,9 @@
     <t>Josealbertocarreraventura@gmail.com</t>
   </si>
   <si>
+    <t>kyo1189@hotmail.com</t>
+  </si>
+  <si>
     <t>Marthacuatra6@gmail.com</t>
   </si>
   <si>
@@ -1545,6 +1560,9 @@
   </si>
   <si>
     <t>2721913160</t>
+  </si>
+  <si>
+    <t>2722867518</t>
   </si>
   <si>
     <t>2294934088</t>
@@ -3400,7 +3418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3461,25 +3479,25 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3496,25 +3514,25 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J3" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3531,22 +3549,22 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3554,45 +3572,42 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>20330051920121</v>
+        <v>20330051920119</v>
       </c>
       <c r="B5" t="s">
         <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="J5" t="s">
-        <v>510</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>20330051920122</v>
+        <v>20330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
         <v>325</v>
@@ -3601,22 +3616,22 @@
         <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="J6" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3624,34 +3639,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>20330051920123</v>
+        <v>20330051920122</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
         <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G7" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3659,34 +3674,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>20330051920124</v>
+        <v>20330051920123</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>347</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>518</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3694,66 +3709,69 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>20330051920125</v>
+        <v>20330051920124</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
         <v>348</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J9" t="s">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>20330051920126</v>
+        <v>20330051920125</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>349</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G10" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="H10" t="s">
-        <v>457</v>
+        <v>460</v>
+      </c>
+      <c r="I10" t="s">
+        <v>494</v>
       </c>
       <c r="J10" t="s">
-        <v>413</v>
+        <v>519</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3761,31 +3779,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920127</v>
+        <v>20330051920126</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="G11" t="s">
+        <v>416</v>
       </c>
       <c r="H11" t="s">
-        <v>458</v>
-      </c>
-      <c r="I11" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="J11" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -3793,42 +3811,42 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920128</v>
+        <v>20330051920127</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>351</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
-      </c>
-      <c r="G12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>462</v>
+      </c>
+      <c r="I12" t="s">
+        <v>495</v>
       </c>
       <c r="J12" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920129</v>
+        <v>20330051920128</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>328</v>
@@ -3837,22 +3855,19 @@
         <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H13" t="s">
-        <v>460</v>
-      </c>
-      <c r="I13" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="J13" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3860,10 +3875,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920131</v>
+        <v>20330051920129</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>329</v>
@@ -3872,33 +3887,33 @@
         <v>353</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G14" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="H14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I14" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J14" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920132</v>
+        <v>20330051920131</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>330</v>
@@ -3907,83 +3922,86 @@
         <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="G15" t="s">
+        <v>446</v>
       </c>
       <c r="H15" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I15" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J15" t="s">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920133</v>
+        <v>20330051920132</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
         <v>355</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
-      </c>
-      <c r="G16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H16" t="s">
-        <v>463</v>
+        <v>466</v>
+      </c>
+      <c r="I16" t="s">
+        <v>498</v>
       </c>
       <c r="J16" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920134</v>
+        <v>20330051920133</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H17" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J17" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3991,31 +4009,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920135</v>
+        <v>20330051920134</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="G18" t="s">
+        <v>423</v>
       </c>
       <c r="H18" t="s">
-        <v>465</v>
-      </c>
-      <c r="I18" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="J18" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4023,31 +4041,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920136</v>
+        <v>20330051920135</v>
       </c>
       <c r="B19" t="s">
         <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H19" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J19" t="s">
-        <v>422</v>
+        <v>526</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4055,66 +4073,66 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920137</v>
+        <v>20330051920136</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>358</v>
       </c>
       <c r="E20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I20" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J20" t="s">
-        <v>521</v>
+        <v>425</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920139</v>
+        <v>20330051920137</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H21" t="s">
-        <v>468</v>
+        <v>471</v>
+      </c>
+      <c r="I21" t="s">
+        <v>501</v>
       </c>
       <c r="J21" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -4122,136 +4140,133 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920387</v>
+        <v>20330051920139</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
-        <v>359</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
-      </c>
-      <c r="I22" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="J22" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920140</v>
+        <v>19330051920387</v>
       </c>
       <c r="B23" t="s">
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H23" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I23" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J23" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920141</v>
+        <v>20330051920140</v>
       </c>
       <c r="B24" t="s">
         <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F24" t="s">
-        <v>427</v>
+        <v>429</v>
+      </c>
+      <c r="G24" t="s">
+        <v>429</v>
       </c>
       <c r="H24" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I24" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J24" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>20330051920389</v>
+        <v>20330051920141</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
         <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
-      </c>
-      <c r="G25" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="H25" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I25" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J25" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -4259,101 +4274,101 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920142</v>
+        <v>20330051920389</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
-        <v>473</v>
+        <v>476</v>
+      </c>
+      <c r="I26" t="s">
+        <v>505</v>
       </c>
       <c r="J26" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>20330051920143</v>
+        <v>20330051920142</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F27" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
-        <v>474</v>
-      </c>
-      <c r="I27" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="J27" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>20330051920144</v>
+        <v>20330051920143</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="D28" t="s">
         <v>364</v>
       </c>
       <c r="E28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H28" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I28" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="J28" t="s">
-        <v>447</v>
+        <v>534</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -4361,112 +4376,115 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>20330051920387</v>
+        <v>20330051920144</v>
       </c>
       <c r="B29" t="s">
         <v>321</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G29" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H29" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J29" t="s">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>20330051920145</v>
+        <v>20330051920387</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F30" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G30" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H30" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I30" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="J30" t="s">
-        <v>448</v>
+        <v>535</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>20330051920148</v>
+        <v>20330051920145</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>337</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>366</v>
       </c>
       <c r="E31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>436</v>
+      </c>
+      <c r="G31" t="s">
+        <v>451</v>
       </c>
       <c r="H31" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I31" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J31" t="s">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>20330051920150</v>
+        <v>20330051920148</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>338</v>
@@ -4475,22 +4493,19 @@
         <v>367</v>
       </c>
       <c r="E32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F32" t="s">
-        <v>435</v>
-      </c>
-      <c r="G32" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H32" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I32" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="J32" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -4498,10 +4513,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>20330051920151</v>
+        <v>20330051920150</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
         <v>339</v>
@@ -4510,88 +4525,123 @@
         <v>368</v>
       </c>
       <c r="E33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H33" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="I33" t="s">
+        <v>403</v>
       </c>
       <c r="J33" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>20330051920153</v>
+        <v>20330051920151</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
       </c>
       <c r="D34" t="s">
         <v>369</v>
       </c>
       <c r="E34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H34" t="s">
-        <v>481</v>
-      </c>
-      <c r="I34" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="J34" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>19330051920145</v>
+        <v>20330051920153</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" t="s">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>370</v>
       </c>
       <c r="E35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H35" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I35" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J35" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>19330051920145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" t="s">
+        <v>371</v>
+      </c>
+      <c r="E36" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" t="s">
+        <v>441</v>
+      </c>
+      <c r="G36" t="s">
+        <v>441</v>
+      </c>
+      <c r="H36" t="s">
+        <v>486</v>
+      </c>
+      <c r="I36" t="s">
+        <v>511</v>
+      </c>
+      <c r="J36" t="s">
+        <v>540</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
     </row>

--- a/Camacho Juárez Sergio Eduardo 20212.xlsx
+++ b/Camacho Juárez Sergio Eduardo 20212.xlsx
@@ -2971,7 +2971,7 @@
         <v>206</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3601,6 +3601,9 @@
       <c r="J5" t="s">
         <v>515</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
